--- a/MCNP Example Runs/Ex5-3/Ex5-3.xlsx
+++ b/MCNP Example Runs/Ex5-3/Ex5-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14388" windowHeight="3960" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="6" r:id="rId1"/>
@@ -360,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G26" authorId="0" shapeId="0">
+    <comment ref="G28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -410,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -434,107 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G30" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick Dolloso:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Material density
-* (+) = atom density [atoms/b-cm]
-* (-) = mass density [g/cc]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D34" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick Dolloso:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-put 000 if naturally occuring</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G34" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick Dolloso:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Material density
-* (+) = atom density [atoms/b-cm]
-* (-) = mass density [g/cc]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D39" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Patrick Dolloso:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-put 000 if naturally occuring</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G39" authorId="0" shapeId="0">
+    <comment ref="G44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +465,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="506">
   <si>
     <t>Index</t>
   </si>
@@ -1505,18 +1405,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>U-238</t>
-  </si>
-  <si>
-    <t>U-235</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
     <t>Side View</t>
   </si>
   <si>
@@ -1547,12 +1435,6 @@
     <t>016</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
     <t>mt1</t>
   </si>
   <si>
@@ -1562,12 +1444,6 @@
     <t>Light Water</t>
   </si>
   <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
     <t>N_H2</t>
   </si>
   <si>
@@ -1604,27 +1480,9 @@
     <t>py</t>
   </si>
   <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>mt3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description: </t>
-  </si>
-  <si>
-    <t>Material 3 - H2O (water)</t>
-  </si>
-  <si>
     <t>Description:</t>
   </si>
   <si>
-    <t>Material 2 - Al Case</t>
-  </si>
-  <si>
-    <t>Material 1 - UO2F2</t>
-  </si>
-  <si>
     <t>mcnp6 cmd prompt</t>
   </si>
   <si>
@@ -1989,6 +1847,144 @@
   </si>
   <si>
     <t>Void universe</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>7.195-4</t>
+  </si>
+  <si>
+    <t>1.38589-2</t>
+  </si>
+  <si>
+    <t>1.5713-3</t>
+  </si>
+  <si>
+    <t>3.903-4</t>
+  </si>
+  <si>
+    <t>3.704-3</t>
+  </si>
+  <si>
+    <t>5.80869-2</t>
+  </si>
+  <si>
+    <t>1.342-3</t>
+  </si>
+  <si>
+    <t>1773-4</t>
+  </si>
+  <si>
+    <t>4.432-3</t>
+  </si>
+  <si>
+    <t>1.7069-3</t>
+  </si>
+  <si>
+    <t>7.42--5</t>
+  </si>
+  <si>
+    <t>2.363-4</t>
+  </si>
+  <si>
+    <t>6.05-5</t>
+  </si>
+  <si>
+    <t>Material 2 - Stainless Steel Case</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>6.007-2</t>
+  </si>
+  <si>
+    <t>3.6540-2</t>
+  </si>
+  <si>
+    <t>2.3699-3</t>
+  </si>
+  <si>
+    <t>2.7682-4</t>
+  </si>
+  <si>
+    <t>1.2214-5</t>
+  </si>
+  <si>
+    <t>Pu-239</t>
+  </si>
+  <si>
+    <t>Pu-240</t>
+  </si>
+  <si>
+    <t>Pu-241</t>
+  </si>
+  <si>
+    <t>Pu-242</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>8.339-7</t>
+  </si>
+  <si>
+    <t>4.5800-8</t>
+  </si>
+  <si>
+    <t>Material 1 - Pu-N</t>
   </si>
 </sst>
 </file>
@@ -3449,7 +3445,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -3593,10 +3589,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3627,10 +3623,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -3662,19 +3658,19 @@
         <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E10" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G10" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H10" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="I10" t="s">
         <v>111</v>
@@ -3977,22 +3973,22 @@
     </row>
     <row r="22" spans="2:20">
       <c r="B22" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C22" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D22">
         <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="F22" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="G22" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="H22" t="s">
         <v>277</v>
@@ -4001,25 +3997,25 @@
         <v>153</v>
       </c>
       <c r="J22" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="K22" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="L22" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="M22" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="N22" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="O22" t="s">
         <v>122</v>
       </c>
       <c r="P22" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="2:20">
@@ -4557,7 +4553,7 @@
         <v>130</v>
       </c>
       <c r="P48" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="Q48">
         <v>0.58233999999999997</v>
@@ -4566,7 +4562,7 @@
         <v>130</v>
       </c>
       <c r="S48" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="T48" t="s">
         <v>133</v>
@@ -6391,10 +6387,10 @@
         <v>6.2E-4</v>
       </c>
       <c r="N114" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="O114" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="2:15">
@@ -6435,10 +6431,10 @@
         <v>6.7000000000000002E-4</v>
       </c>
       <c r="N115" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="O115" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116" spans="2:15">
@@ -6479,10 +6475,10 @@
         <v>5.1999999999999995E-4</v>
       </c>
       <c r="N116" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="O116" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="2:15">
@@ -6523,10 +6519,10 @@
         <v>5.6999999999999998E-4</v>
       </c>
       <c r="N117" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="O117" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="2:15">
@@ -6567,10 +6563,10 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="N118" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="O118" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="2:15">
@@ -6611,10 +6607,10 @@
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="N119" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="O119" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="2:15">
@@ -6655,10 +6651,10 @@
         <v>6.2E-4</v>
       </c>
       <c r="N120" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="O120" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="2:15">
@@ -6699,10 +6695,10 @@
         <v>8.4000000000000003E-4</v>
       </c>
       <c r="N121" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="O121" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" spans="2:15">
@@ -6743,10 +6739,10 @@
         <v>8.3000000000000001E-4</v>
       </c>
       <c r="N122" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="O122" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="2:15">
@@ -6787,10 +6783,10 @@
         <v>5.1999999999999995E-4</v>
       </c>
       <c r="N123" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="O123" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -6832,18 +6828,18 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
         <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6858,7 +6854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -6882,33 +6878,33 @@
       </c>
       <c r="B2" s="2"/>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="D3" s="3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="D4" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="G4">
         <v>19</v>
@@ -6916,7 +6912,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="D5" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="E5" s="30" t="str">
         <f>D4&amp;" "&amp;"name="&amp;E4&amp;F4&amp;" "&amp;"tasks"&amp;" "&amp;G4</f>
@@ -6934,7 +6930,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6955,7 +6951,7 @@
     <row r="13" spans="1:8">
       <c r="C13" s="6"/>
       <c r="E13" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F13" s="21">
         <v>2.2768200000000001E-3</v>
@@ -6964,7 +6960,7 @@
     <row r="14" spans="1:8">
       <c r="C14" s="6"/>
       <c r="E14" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F14" s="21">
         <v>1.2214E-5</v>
@@ -6973,7 +6969,7 @@
     <row r="15" spans="1:8">
       <c r="C15" s="6"/>
       <c r="E15" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="F15" s="22">
         <v>8.3389999999999997E-7</v>
@@ -6981,7 +6977,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="E16" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="F16" s="22">
         <v>2.5799999999999999E-8</v>
@@ -6990,7 +6986,7 @@
     <row r="17" spans="3:7">
       <c r="C17" s="6"/>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F17" s="22">
         <v>6.0069999999999998E-2</v>
@@ -6998,7 +6994,7 @@
     </row>
     <row r="18" spans="3:7">
       <c r="E18" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="F18" s="21">
         <v>3.6540000000000003E-2</v>
@@ -7006,7 +7002,7 @@
     </row>
     <row r="19" spans="3:7">
       <c r="E19" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="F19" s="21">
         <v>2.3698999999999999E-3</v>
@@ -7014,7 +7010,7 @@
     </row>
     <row r="20" spans="3:7">
       <c r="E20" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F20" s="21">
         <v>9.9269999999999997E-2</v>
@@ -7022,10 +7018,10 @@
     </row>
     <row r="21" spans="3:7">
       <c r="D21" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E21" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F21" s="20">
         <v>39.24</v>
@@ -7036,7 +7032,7 @@
     </row>
     <row r="22" spans="3:7">
       <c r="E22" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="F22" s="21">
         <v>6.3310000000000005E-2</v>
@@ -7044,7 +7040,7 @@
     </row>
     <row r="23" spans="3:7">
       <c r="E23" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F23" s="21">
         <v>1.6539999999999999E-2</v>
@@ -7052,7 +7048,7 @@
     </row>
     <row r="24" spans="3:7">
       <c r="E24" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F24" s="21">
         <v>6.5100000000000002E-3</v>
@@ -7060,7 +7056,7 @@
     </row>
     <row r="25" spans="3:7">
       <c r="E25" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="F25" s="21">
         <v>8.6360000000000006E-2</v>
@@ -7068,10 +7064,10 @@
     </row>
     <row r="26" spans="3:7">
       <c r="D26" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F26" s="5">
         <v>10</v>
@@ -7082,10 +7078,10 @@
     </row>
     <row r="27" spans="3:7">
       <c r="D27" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="E27" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="F27" s="20">
         <v>24.98</v>
@@ -7093,10 +7089,10 @@
     </row>
     <row r="28" spans="3:7">
       <c r="D28" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="E28" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F28" s="5">
         <v>0.3</v>
@@ -7107,10 +7103,10 @@
     </row>
     <row r="29" spans="3:7">
       <c r="D29" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
@@ -7121,10 +7117,10 @@
     </row>
     <row r="30" spans="3:7">
       <c r="D30" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="E30" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="F30" s="5">
         <v>101.7</v>
@@ -7135,10 +7131,10 @@
     </row>
     <row r="31" spans="3:7">
       <c r="D31" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="E31" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F31" s="20">
         <v>35.58</v>
@@ -7166,7 +7162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -7190,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7198,15 +7194,15 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="I7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="J7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7249,7 +7245,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>40</v>
@@ -7260,7 +7256,7 @@
         <v>257</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="32"/>
@@ -7268,7 +7264,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="18"/>
       <c r="H18" s="39" t="str">
-        <f>A18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;" "&amp;F18&amp;" "&amp;G18&amp;" "&amp;B18</f>
+        <f t="shared" ref="H18:H23" si="0">A18&amp;" "&amp;C18&amp;" "&amp;D18&amp;" "&amp;E18&amp;" "&amp;F18&amp;" "&amp;G18&amp;" "&amp;B18</f>
         <v>c      Solution cylinder</v>
       </c>
     </row>
@@ -7277,10 +7273,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -7290,7 +7286,7 @@
         <v>12.49</v>
       </c>
       <c r="H19" s="39" t="str">
-        <f>A19&amp;" "&amp;C19&amp;" "&amp;D19&amp;" "&amp;E19&amp;" "&amp;F19&amp;" "&amp;G19&amp;" "&amp;B19</f>
+        <f t="shared" si="0"/>
         <v>1 cz    12.49 $ soln radius</v>
       </c>
     </row>
@@ -7299,10 +7295,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -7312,7 +7308,7 @@
         <v>12.790000000000001</v>
       </c>
       <c r="H20" s="39" t="str">
-        <f>A20&amp;" "&amp;C20&amp;" "&amp;D20&amp;" "&amp;E20&amp;" "&amp;F20&amp;" "&amp;G20&amp;" "&amp;B20</f>
+        <f t="shared" si="0"/>
         <v>2 cz    12.79 $ container radius</v>
       </c>
     </row>
@@ -7321,10 +7317,10 @@
         <v>5</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -7333,7 +7329,7 @@
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="39" t="str">
-        <f>A21&amp;" "&amp;C21&amp;" "&amp;D21&amp;" "&amp;E21&amp;" "&amp;F21&amp;" "&amp;G21&amp;" "&amp;B21</f>
+        <f t="shared" si="0"/>
         <v>5 pz   0  $ bottom of cylinder</v>
       </c>
     </row>
@@ -7342,10 +7338,10 @@
         <v>6</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F22" s="36">
         <f>General!F21</f>
@@ -7353,7 +7349,7 @@
       </c>
       <c r="G22" s="33"/>
       <c r="H22" s="39" t="str">
-        <f>A22&amp;" "&amp;C22&amp;" "&amp;D22&amp;" "&amp;E22&amp;" "&amp;F22&amp;" "&amp;G22&amp;" "&amp;B22</f>
+        <f t="shared" si="0"/>
         <v>6 pz   39.24  $ top of cylinder</v>
       </c>
     </row>
@@ -7362,10 +7358,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F23" s="33">
         <f>General!F30</f>
@@ -7373,7 +7369,7 @@
       </c>
       <c r="G23" s="33"/>
       <c r="H23" s="39" t="str">
-        <f>A23&amp;" "&amp;C23&amp;" "&amp;D23&amp;" "&amp;E23&amp;" "&amp;F23&amp;" "&amp;G23&amp;" "&amp;B23</f>
+        <f t="shared" si="0"/>
         <v>7 pz   101.7  $ tank inner height</v>
       </c>
     </row>
@@ -7382,12 +7378,12 @@
         <v>257</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C24" s="18"/>
       <c r="G24" s="33"/>
       <c r="H24" s="39" t="str">
-        <f t="shared" ref="H24:H39" si="0">A24&amp;" "&amp;C24&amp;" "&amp;D24&amp;" "&amp;E24&amp;" "&amp;F24&amp;" "&amp;G24&amp;" "&amp;B24</f>
+        <f t="shared" ref="H24:H39" si="1">A24&amp;" "&amp;C24&amp;" "&amp;D24&amp;" "&amp;E24&amp;" "&amp;F24&amp;" "&amp;G24&amp;" "&amp;B24</f>
         <v>c      Beginning of lattice surfaces</v>
       </c>
     </row>
@@ -7396,10 +7392,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D25" s="33">
         <v>17.79</v>
@@ -7415,17 +7411,17 @@
         <v>9</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D26" s="33">
         <v>-17.79</v>
       </c>
       <c r="G26" s="33"/>
       <c r="H26" s="39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9 px -17.79    $ side of lattice</v>
       </c>
     </row>
@@ -7434,17 +7430,17 @@
         <v>10</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E27" s="33">
         <v>17.79</v>
       </c>
       <c r="G27" s="33"/>
       <c r="H27" s="39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10 py  17.79   $ side of lattice</v>
       </c>
     </row>
@@ -7453,17 +7449,17 @@
         <v>11</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E28" s="33">
         <v>-17.79</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11 py  -17.79   $ side of lattice</v>
       </c>
     </row>
@@ -7472,11 +7468,11 @@
         <v>257</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G29" s="33"/>
       <c r="H29" s="39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>c      Beginning of Window Surfaces</v>
       </c>
     </row>
@@ -7485,10 +7481,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F30" s="33">
         <v>-1</v>
@@ -7504,10 +7500,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F31" s="33">
         <f>General!F30+General!F29</f>
@@ -7524,16 +7520,16 @@
         <v>12</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D32" s="36">
         <v>88.95</v>
       </c>
       <c r="H32" s="39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12 px 88.95    $ tank</v>
       </c>
     </row>
@@ -7542,52 +7538,52 @@
         <v>14</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E33" s="33">
         <v>53.37</v>
       </c>
       <c r="H33" s="39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14 py  53.37   $ tank</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="H34" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      </v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="H35" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      </v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="H36" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      </v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="H37" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      </v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="H38" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      </v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="H39" s="16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      </v>
       </c>
     </row>
@@ -7630,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7640,12 +7636,12 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7679,7 +7675,7 @@
         <v>257</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="H22" s="38" t="str">
         <f>A22&amp;" "&amp;C22&amp;" "&amp;D22&amp;" "&amp;E22&amp;" "&amp;F22&amp;" "&amp;G22&amp;" "&amp;B22</f>
@@ -7691,7 +7687,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C23" s="30">
         <v>1</v>
@@ -7701,10 +7697,10 @@
         <v>9.9269999999999997E-2</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>105</v>
@@ -7719,16 +7715,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C24" s="30">
         <v>0</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>105</v>
@@ -7743,7 +7739,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C25" s="30">
         <v>2</v>
@@ -7753,10 +7749,10 @@
         <v>8.6360000000000006E-2</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>105</v>
@@ -7771,7 +7767,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="H26" s="38" t="str">
         <f t="shared" si="0"/>
@@ -7783,7 +7779,7 @@
         <v>257</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="H27" s="38" t="str">
         <f t="shared" si="0"/>
@@ -7795,16 +7791,16 @@
         <v>5</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C28" s="30">
         <v>0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>105</v>
@@ -7819,7 +7815,7 @@
         <v>257</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="H29" s="38" t="str">
         <f t="shared" si="0"/>
@@ -7831,16 +7827,16 @@
         <v>6</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C30" s="30">
         <v>0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>105</v>
@@ -7852,10 +7848,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="H31" s="38" t="str">
         <f t="shared" si="0"/>
@@ -7867,13 +7863,13 @@
         <v>999</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C32" s="30">
         <v>0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>106</v>
@@ -8183,7 +8179,7 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -8223,13 +8219,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="3" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8245,13 +8241,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="C32" s="3" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -8267,13 +8263,13 @@
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="3" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -8289,13 +8285,13 @@
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="3" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -8321,10 +8317,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8381,83 +8377,61 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="str">
-        <f>A44</f>
+        <f>A48</f>
         <v>m1</v>
       </c>
       <c r="B11" t="str">
         <f>C17</f>
-        <v>Material 1 - UO2F2</v>
+        <v>Material 1 - Pu-N</v>
       </c>
       <c r="E11" s="38" t="str">
-        <f>A11&amp;" "&amp;B44&amp;" "&amp;D11&amp;" "&amp;" "&amp;"$"&amp;" "&amp;B11</f>
-        <v>m1 1001.62c 0.06221 8016.62c 0.033621 9019.62c 0.0025161 92238.66c 0.001176 92235.66c 0.000082051   $ Material 1 - UO2F2</v>
+        <f>A11&amp;" "&amp;B48&amp;" "&amp;D11&amp;" "&amp;" "&amp;"$"&amp;" "&amp;B11</f>
+        <v>m1 1001.62c.62c 6.007-2 8016.62c.62c 3.6540-2 7014.62c.62c 2.3699-3 94239.66c.66c 2.7682-4 94240.66c.66c 1.2214-5 94241.66c.66c 8.339-7 94242.66c.66c 4.5800-8   $ Material 1 - Pu-N</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="str">
-        <f>A45</f>
+        <f>A49</f>
         <v>m2</v>
       </c>
       <c r="B12" t="str">
-        <f>C25</f>
-        <v>Material 2 - Al Case</v>
+        <f>C27</f>
+        <v>Material 2 - Stainless Steel Case</v>
       </c>
       <c r="E12" s="38" t="str">
-        <f t="shared" ref="E12:E15" si="0">A12&amp;" "&amp;B45&amp;" "&amp;D12&amp;" "&amp;" "&amp;"$"&amp;" "&amp;B12</f>
-        <v>m2 13027.62c 1   $ Material 2 - Al Case</v>
+        <f>A12&amp;" "&amp;B49&amp;" "&amp;D12&amp;" "&amp;" "&amp;"$"&amp;" "&amp;B12</f>
+        <v>m2 24050.62c.62c 7.195-4 24052.62c.62c 1.38589-2 24053.62c.62c 1.5713-3 24054.62c.62c 3.903-4 26056.62c.62c 3.704-3 26056.62c.62c 5.80869-2 26057.62c.62c 1.342-3 26058.62c.62c 1773-4 28058.62c.62c 4.432-3 28060.62c.62c 1.7069-3 28061.62c.62c 7.42--5 28062.62c.62c 2.363-4 28064.62c.62c 6.05-5   $ Material 2 - Stainless Steel Case</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="str">
-        <f>A46</f>
+        <f>A50</f>
         <v>mt1</v>
       </c>
       <c r="B13" t="str">
-        <f>C29</f>
+        <f>C43</f>
         <v>Light Water</v>
       </c>
       <c r="E13" s="38" t="str">
-        <f t="shared" si="0"/>
+        <f>A13&amp;" "&amp;B50&amp;" "&amp;D13&amp;" "&amp;" "&amp;"$"&amp;" "&amp;B13</f>
         <v>mt1 lwtr.60t   $ Light Water</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="str">
-        <f>A47</f>
-        <v>m3</v>
-      </c>
-      <c r="B14" t="str">
-        <f>C33</f>
-        <v>Material 3 - H2O (water)</v>
-      </c>
-      <c r="E14" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>m3 1001.62c 2 8016.62c 1   $ Material 3 - H2O (water)</v>
-      </c>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="str">
-        <f>A48</f>
-        <v>mt3</v>
-      </c>
-      <c r="B15" t="str">
-        <f>C38</f>
-        <v>Light Water</v>
-      </c>
-      <c r="E15" s="38" t="str">
-        <f t="shared" si="0"/>
-        <v>mt3 lwtr.60t   $ Light Water</v>
-      </c>
+      <c r="E15" s="38"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>89</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -8491,27 +8465,27 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E19" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F19" t="str">
-        <f>C19&amp;D19&amp;$F$17</f>
-        <v>1001</v>
-      </c>
-      <c r="G19" s="7">
-        <v>6.2210000000000001E-2</v>
+        <f>C19&amp;D19&amp;E19</f>
+        <v>1001.62c</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>490</v>
       </c>
       <c r="H19" t="str">
         <f>F19&amp;E19&amp;" "&amp;G19</f>
-        <v>1001.62c 0.06221</v>
+        <v>1001.62c.62c 6.007-2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -8519,27 +8493,27 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F20" t="str">
-        <f>C20&amp;D20&amp;$F$17</f>
-        <v>8016</v>
-      </c>
-      <c r="G20" s="6">
-        <v>3.3620999999999998E-2</v>
+        <f t="shared" ref="F20:F25" si="0">C20&amp;D20&amp;E20</f>
+        <v>8016.62c</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>491</v>
       </c>
       <c r="H20" t="str">
         <f>F20&amp;E20&amp;" "&amp;G20</f>
-        <v>8016.62c 0.033621</v>
+        <v>8016.62c.62c 3.6540-2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -8547,27 +8521,27 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>488</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>327</v>
+        <v>489</v>
       </c>
       <c r="E21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F21" t="str">
-        <f>C21&amp;D21&amp;$F$17</f>
-        <v>9019</v>
-      </c>
-      <c r="G21" s="6">
-        <v>2.5160999999999998E-3</v>
+        <f t="shared" si="0"/>
+        <v>7014.62c</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>492</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ref="H21:H23" si="1">F21&amp;E21&amp;" "&amp;G21</f>
-        <v>9019.62c 0.0025161</v>
+        <f t="shared" ref="H21:H25" si="1">F21&amp;E21&amp;" "&amp;G21</f>
+        <v>7014.62c.62c 2.3699-3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -8575,27 +8549,27 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>313</v>
+        <v>495</v>
       </c>
       <c r="C22">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>312</v>
+        <v>499</v>
       </c>
       <c r="E22" t="s">
         <v>99</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ref="F22:F23" si="2">C22&amp;D22&amp;$F$17</f>
-        <v>92238</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1.176E-3</v>
+        <f t="shared" si="0"/>
+        <v>94239.66c</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>493</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>92238.66c 0.001176</v>
+        <v>94239.66c.66c 2.7682-4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -8603,375 +8577,589 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>496</v>
       </c>
       <c r="C23">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>315</v>
+        <v>502</v>
       </c>
       <c r="E23" t="s">
         <v>99</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="2"/>
-        <v>92235</v>
-      </c>
-      <c r="G23" s="6">
-        <v>8.2051000000000004E-5</v>
+        <f t="shared" si="0"/>
+        <v>94240.66c</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>494</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>92235.66c 0.000082051</v>
+        <v>94240.66c.66c 1.2214-5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="D24" s="11"/>
-      <c r="F24" s="7"/>
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C24">
+        <v>94</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>94241.66c</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>94241.66c.66c 8.339-7</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" t="s">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>498</v>
+      </c>
+      <c r="C25">
+        <v>94</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>94242.66c</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>94242.66c.66c 4.5800-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="D26" s="11"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
         <v>311</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
+      <c r="B27" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
+    <row r="29" spans="1:8">
+      <c r="A29">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
-        <v>331</v>
-      </c>
-      <c r="C27">
-        <v>13</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="E27" t="s">
-        <v>321</v>
-      </c>
-      <c r="F27" t="str">
-        <f>C27&amp;D27&amp;$F$17</f>
-        <v>13027</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" t="str">
-        <f>F27&amp;E27&amp;" "&amp;G27</f>
-        <v>13027.62c 1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>328</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C29" t="s">
-        <v>330</v>
+      <c r="B29" t="s">
+        <v>460</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E29" t="s">
+        <v>317</v>
+      </c>
+      <c r="F29" t="str">
+        <f>C29&amp;D29&amp;E29</f>
+        <v>24050.62c</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H29" t="str">
+        <f>F29&amp;E29&amp;" "&amp;G29</f>
+        <v>24050.62c.62c 7.195-4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>100</v>
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="E30" t="s">
+        <v>317</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" ref="F30:F41" si="2">C30&amp;D30&amp;E30</f>
+        <v>24052.62c</v>
+      </c>
+      <c r="G30" t="s">
+        <v>475</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H41" si="3">F30&amp;E30&amp;" "&amp;G30</f>
+        <v>24052.62c.62c 1.38589-2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
-      </c>
-      <c r="D31" s="11"/>
+        <v>460</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>465</v>
+      </c>
       <c r="E31" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F31" t="str">
-        <f>C31&amp;D31&amp;$F$17</f>
-        <v/>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" t="s">
-        <v>329</v>
+        <f t="shared" si="2"/>
+        <v>24053.62c</v>
+      </c>
+      <c r="G31" t="s">
+        <v>476</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>24053.62c.62c 1.5713-3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="D32" s="11"/>
-      <c r="G32" s="7"/>
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>460</v>
+      </c>
+      <c r="C32">
+        <v>24</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E32" t="s">
+        <v>317</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>24054.62c</v>
+      </c>
+      <c r="G32" t="s">
+        <v>477</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>24054.62c.62c 3.903-4</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" t="s">
-        <v>345</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C33" t="s">
-        <v>348</v>
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>462</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E33" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>26056.62c</v>
+      </c>
+      <c r="G33" t="s">
+        <v>478</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>26056.62c.62c 3.704-3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>100</v>
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>462</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="E34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>26056.62c</v>
+      </c>
+      <c r="G34" t="s">
+        <v>479</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="3"/>
+        <v>26056.62c.62c 5.80869-2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>323</v>
+        <v>462</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>322</v>
+        <v>468</v>
       </c>
       <c r="E35" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F35" t="str">
-        <f>C35&amp;D35&amp;$F$17</f>
-        <v>1001</v>
-      </c>
-      <c r="G35" s="11">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>26057.62c</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>480</v>
       </c>
       <c r="H35" t="str">
-        <f>F35&amp;E35&amp;" "&amp;G35</f>
-        <v>1001.62c 2</v>
+        <f t="shared" si="3"/>
+        <v>26057.62c.62c 1.342-3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>324</v>
+        <v>462</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>325</v>
+        <v>469</v>
       </c>
       <c r="E36" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F36" t="str">
-        <f>C36&amp;D36&amp;$F$17</f>
-        <v>8016</v>
-      </c>
-      <c r="G36" s="11">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>26058.62c</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="H36" t="str">
-        <f>F36&amp;E36&amp;" "&amp;G36</f>
-        <v>8016.62c 1</v>
+        <f t="shared" si="3"/>
+        <v>26058.62c.62c 1773-4</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="D37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>463</v>
+      </c>
+      <c r="C37">
+        <v>28</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E37" t="s">
+        <v>317</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>28058.62c</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="3"/>
+        <v>28058.62c.62c 4.432-3</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>346</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C38" t="s">
-        <v>330</v>
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>463</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E38" t="s">
+        <v>317</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v>28060.62c</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="3"/>
+        <v>28060.62c.62c 1.7069-3</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>100</v>
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>463</v>
+      </c>
+      <c r="C39">
+        <v>28</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="E39" t="s">
+        <v>317</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="2"/>
+        <v>28061.62c</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="3"/>
+        <v>28061.62c.62c 7.42--5</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>463</v>
+      </c>
+      <c r="C40">
+        <v>28</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="E40" t="s">
+        <v>317</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>28062.62c</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="3"/>
+        <v>28062.62c.62c 2.363-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>463</v>
+      </c>
+      <c r="C41">
+        <v>28</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E41" t="s">
+        <v>317</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v>28064.62c</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="3"/>
+        <v>28064.62c.62c 6.05-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="D42" s="11"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
         <v>1</v>
       </c>
-      <c r="B40" t="s">
-        <v>330</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" t="s">
-        <v>320</v>
-      </c>
-      <c r="F40" t="str">
-        <f>C40&amp;D40&amp;$F$17</f>
+      <c r="B45" t="s">
+        <v>324</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" t="s">
+        <v>316</v>
+      </c>
+      <c r="F45" t="str">
+        <f>C45&amp;D45&amp;$F$17</f>
         <v/>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="D41" s="11"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="3" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="str">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="str">
         <f>A17</f>
         <v>m1</v>
       </c>
-      <c r="B44" t="str">
-        <f>H19&amp;" "&amp;H20&amp;" "&amp;H21&amp;" "&amp;H22&amp;" "&amp;H23</f>
-        <v>1001.62c 0.06221 8016.62c 0.033621 9019.62c 0.0025161 92238.66c 0.001176 92235.66c 0.000082051</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="str">
-        <f>A25</f>
+      <c r="B48" t="str">
+        <f>H19&amp;" "&amp;H20&amp;" "&amp;H21&amp;" "&amp;H22&amp;" "&amp;H23&amp;" "&amp;H24&amp;" "&amp;H25</f>
+        <v>1001.62c.62c 6.007-2 8016.62c.62c 3.6540-2 7014.62c.62c 2.3699-3 94239.66c.66c 2.7682-4 94240.66c.66c 1.2214-5 94241.66c.66c 8.339-7 94242.66c.66c 4.5800-8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="str">
+        <f>A27</f>
         <v>m2</v>
       </c>
-      <c r="B45" t="str">
-        <f>H27</f>
-        <v>13027.62c 1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="str">
-        <f>A29</f>
+      <c r="B49" t="str">
+        <f>H29&amp;" "&amp;H30&amp;" "&amp;H31&amp;" "&amp;H32&amp;" "&amp;H33&amp;" "&amp;H34&amp;" "&amp;H35&amp;" "&amp;H36&amp;" "&amp;H37&amp;" "&amp;H38&amp;" "&amp;H39&amp;" "&amp;H40&amp;" "&amp;H41</f>
+        <v>24050.62c.62c 7.195-4 24052.62c.62c 1.38589-2 24053.62c.62c 1.5713-3 24054.62c.62c 3.903-4 26056.62c.62c 3.704-3 26056.62c.62c 5.80869-2 26057.62c.62c 1.342-3 26058.62c.62c 1773-4 28058.62c.62c 4.432-3 28060.62c.62c 1.7069-3 28061.62c.62c 7.42--5 28062.62c.62c 2.363-4 28064.62c.62c 6.05-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="str">
+        <f>A43</f>
         <v>mt1</v>
       </c>
-      <c r="B46" t="str">
-        <f>H31</f>
-        <v>lwtr.60t</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="str">
-        <f>A33</f>
-        <v>m3</v>
-      </c>
-      <c r="B47" t="str">
-        <f>H35&amp;" "&amp;H36</f>
-        <v>1001.62c 2 8016.62c 1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="str">
-        <f>A38</f>
-        <v>mt3</v>
-      </c>
-      <c r="B48" t="str">
-        <f>H40</f>
+      <c r="B50" t="str">
+        <f>H45</f>
         <v>lwtr.60t</v>
       </c>
     </row>

--- a/MCNP Example Runs/Ex5-3/Ex5-3.xlsx
+++ b/MCNP Example Runs/Ex5-3/Ex5-3.xlsx
@@ -8319,8 +8319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="E11" s="38" t="str">
         <f>A11&amp;" "&amp;B48&amp;" "&amp;D11&amp;" "&amp;" "&amp;"$"&amp;" "&amp;B11</f>
-        <v>m1 1001.62c.62c 6.007-2 8016.62c.62c 3.6540-2 7014.62c.62c 2.3699-3 94239.66c.66c 2.7682-4 94240.66c.66c 1.2214-5 94241.66c.66c 8.339-7 94242.66c.66c 4.5800-8   $ Material 1 - Pu-N</v>
+        <v>m1 1001.62c 6.007-2 8016.62c 3.6540-2 7014.62c 2.3699-3 94239.66c 2.7682-4 94240.66c 1.2214-5 94241.66c 8.339-7 94242.66c 4.5800-8   $ Material 1 - Pu-N</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="E12" s="38" t="str">
         <f>A12&amp;" "&amp;B49&amp;" "&amp;D12&amp;" "&amp;" "&amp;"$"&amp;" "&amp;B12</f>
-        <v>m2 24050.62c.62c 7.195-4 24052.62c.62c 1.38589-2 24053.62c.62c 1.5713-3 24054.62c.62c 3.903-4 26056.62c.62c 3.704-3 26056.62c.62c 5.80869-2 26057.62c.62c 1.342-3 26058.62c.62c 1773-4 28058.62c.62c 4.432-3 28060.62c.62c 1.7069-3 28061.62c.62c 7.42--5 28062.62c.62c 2.363-4 28064.62c.62c 6.05-5   $ Material 2 - Stainless Steel Case</v>
+        <v>m2 24050.62c 7.195-4 24052.62c 1.38589-2 24053.62c 1.5713-3 24054.62c 3.903-4 26056.62c 3.704-3 26056.62c 5.80869-2 26057.62c 1.342-3 26058.62c 1773-4 28058.62c 4.432-3 28060.62c 1.7069-3 28061.62c 7.42--5 28062.62c 2.363-4 28064.62c 6.05-5   $ Material 2 - Stainless Steel Case</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8484,8 +8484,8 @@
         <v>490</v>
       </c>
       <c r="H19" t="str">
-        <f>F19&amp;E19&amp;" "&amp;G19</f>
-        <v>1001.62c.62c 6.007-2</v>
+        <f>F19&amp;" "&amp;G19</f>
+        <v>1001.62c 6.007-2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -8512,8 +8512,8 @@
         <v>491</v>
       </c>
       <c r="H20" t="str">
-        <f>F20&amp;E20&amp;" "&amp;G20</f>
-        <v>8016.62c.62c 3.6540-2</v>
+        <f t="shared" ref="H20:H25" si="1">F20&amp;" "&amp;G20</f>
+        <v>8016.62c 3.6540-2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -8540,8 +8540,8 @@
         <v>492</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ref="H21:H25" si="1">F21&amp;E21&amp;" "&amp;G21</f>
-        <v>7014.62c.62c 2.3699-3</v>
+        <f t="shared" si="1"/>
+        <v>7014.62c 2.3699-3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>94239.66c.66c 2.7682-4</v>
+        <v>94239.66c 2.7682-4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>94240.66c.66c 1.2214-5</v>
+        <v>94240.66c 1.2214-5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>94241.66c.66c 8.339-7</v>
+        <v>94241.66c 8.339-7</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>94242.66c.66c 4.5800-8</v>
+        <v>94242.66c 4.5800-8</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -8721,8 +8721,8 @@
         <v>474</v>
       </c>
       <c r="H29" t="str">
-        <f>F29&amp;E29&amp;" "&amp;G29</f>
-        <v>24050.62c.62c 7.195-4</v>
+        <f>F29&amp;" "&amp;G29</f>
+        <v>24050.62c 7.195-4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -8749,8 +8749,8 @@
         <v>475</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" ref="H30:H41" si="3">F30&amp;E30&amp;" "&amp;G30</f>
-        <v>24052.62c.62c 1.38589-2</v>
+        <f t="shared" ref="H30:H41" si="3">F30&amp;" "&amp;G30</f>
+        <v>24052.62c 1.38589-2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
-        <v>24053.62c.62c 1.5713-3</v>
+        <v>24053.62c 1.5713-3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
-        <v>24054.62c.62c 3.903-4</v>
+        <v>24054.62c 3.903-4</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
-        <v>26056.62c.62c 3.704-3</v>
+        <v>26056.62c 3.704-3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -8862,7 +8862,7 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
-        <v>26056.62c.62c 5.80869-2</v>
+        <v>26056.62c 5.80869-2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
-        <v>26057.62c.62c 1.342-3</v>
+        <v>26057.62c 1.342-3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
-        <v>26058.62c.62c 1773-4</v>
+        <v>26058.62c 1773-4</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
-        <v>28058.62c.62c 4.432-3</v>
+        <v>28058.62c 4.432-3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
-        <v>28060.62c.62c 1.7069-3</v>
+        <v>28060.62c 1.7069-3</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
-        <v>28061.62c.62c 7.42--5</v>
+        <v>28061.62c 7.42--5</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>28062.62c.62c 2.363-4</v>
+        <v>28062.62c 2.363-4</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -9058,7 +9058,7 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>28064.62c.62c 6.05-5</v>
+        <v>28064.62c 6.05-5</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9140,7 +9140,7 @@
       </c>
       <c r="B48" t="str">
         <f>H19&amp;" "&amp;H20&amp;" "&amp;H21&amp;" "&amp;H22&amp;" "&amp;H23&amp;" "&amp;H24&amp;" "&amp;H25</f>
-        <v>1001.62c.62c 6.007-2 8016.62c.62c 3.6540-2 7014.62c.62c 2.3699-3 94239.66c.66c 2.7682-4 94240.66c.66c 1.2214-5 94241.66c.66c 8.339-7 94242.66c.66c 4.5800-8</v>
+        <v>1001.62c 6.007-2 8016.62c 3.6540-2 7014.62c 2.3699-3 94239.66c 2.7682-4 94240.66c 1.2214-5 94241.66c 8.339-7 94242.66c 4.5800-8</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="B49" t="str">
         <f>H29&amp;" "&amp;H30&amp;" "&amp;H31&amp;" "&amp;H32&amp;" "&amp;H33&amp;" "&amp;H34&amp;" "&amp;H35&amp;" "&amp;H36&amp;" "&amp;H37&amp;" "&amp;H38&amp;" "&amp;H39&amp;" "&amp;H40&amp;" "&amp;H41</f>
-        <v>24050.62c.62c 7.195-4 24052.62c.62c 1.38589-2 24053.62c.62c 1.5713-3 24054.62c.62c 3.903-4 26056.62c.62c 3.704-3 26056.62c.62c 5.80869-2 26057.62c.62c 1.342-3 26058.62c.62c 1773-4 28058.62c.62c 4.432-3 28060.62c.62c 1.7069-3 28061.62c.62c 7.42--5 28062.62c.62c 2.363-4 28064.62c.62c 6.05-5</v>
+        <v>24050.62c 7.195-4 24052.62c 1.38589-2 24053.62c 1.5713-3 24054.62c 3.903-4 26056.62c 3.704-3 26056.62c 5.80869-2 26057.62c 1.342-3 26058.62c 1773-4 28058.62c 4.432-3 28060.62c 1.7069-3 28061.62c 7.42--5 28062.62c 2.363-4 28064.62c 6.05-5</v>
       </c>
     </row>
     <row r="50" spans="1:2">
